--- a/rsc/Control de errores 1.2.xlsx
+++ b/rsc/Control de errores 1.2.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="77">
   <si>
     <t>Test</t>
   </si>
@@ -235,16 +235,47 @@
   </si>
   <si>
     <t>25 - Prueba register completa</t>
+  </si>
+  <si>
+    <t>26 - Prueba con emulador celular vertical</t>
+  </si>
+  <si>
+    <t>26 - Prueba con emulador celular horizontal</t>
+  </si>
+  <si>
+    <t>Critico - Las pantallas se desconfiguraban</t>
+  </si>
+  <si>
+    <t>Se procedio a cambiar las pantallas con tamaños en porcentajes. Aun quedan algunas por arreglar.</t>
+  </si>
+  <si>
+    <t>Todos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -288,8 +319,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -315,7 +348,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -647,8 +682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -788,7 +823,7 @@
         <v>45</v>
       </c>
       <c r="I6" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="45">
@@ -814,7 +849,7 @@
         <v>46</v>
       </c>
       <c r="I7" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="30">
@@ -840,7 +875,7 @@
         <v>47</v>
       </c>
       <c r="I8" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="30">
@@ -867,7 +902,7 @@
       </c>
       <c r="I9" s="2">
         <f>SUM(I6:I8)</f>
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="30">
@@ -1290,21 +1325,45 @@
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
+    <row r="31" spans="1:6" ht="45">
+      <c r="A31" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B31" s="2">
+        <v>3</v>
+      </c>
+      <c r="C31" s="2">
+        <v>2</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="45">
+      <c r="A32" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B32" s="2">
+        <v>3</v>
+      </c>
+      <c r="C32" s="2">
+        <v>2</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:C193">
@@ -1317,6 +1376,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/rsc/Control de errores 1.2.xlsx
+++ b/rsc/Control de errores 1.2.xlsx
@@ -1,14 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14340" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14400" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$F$67</definedName>
+  </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -19,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="88">
   <si>
     <t>Test</t>
   </si>
@@ -153,9 +156,6 @@
     <t>Total</t>
   </si>
   <si>
-    <t>Errores</t>
-  </si>
-  <si>
     <t>Bajo</t>
   </si>
   <si>
@@ -240,9 +240,6 @@
     <t>26 - Prueba con emulador celular vertical</t>
   </si>
   <si>
-    <t>26 - Prueba con emulador celular horizontal</t>
-  </si>
-  <si>
     <t>Critico - Las pantallas se desconfiguraban</t>
   </si>
   <si>
@@ -250,13 +247,52 @@
   </si>
   <si>
     <t>Todos</t>
+  </si>
+  <si>
+    <t>27 - Prueba con emulador celular horizontal</t>
+  </si>
+  <si>
+    <t>29 - Prueba de busca por categoria cuando no hay restaurante</t>
+  </si>
+  <si>
+    <t>28 - Prueba de busqueda de restaurante por categoria</t>
+  </si>
+  <si>
+    <t>Tests Corridos</t>
+  </si>
+  <si>
+    <t>Total Errores</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>25.1 - Prueba de registro con usuario existente</t>
+  </si>
+  <si>
+    <t>Medio - la aplicacion no avisaba que no se pudo dar el registro debido a que el usuario ya existia.</t>
+  </si>
+  <si>
+    <t>Se procedio a revisar el codigo y se encontre el problema en un catch de un excepcion de la BD</t>
+  </si>
+  <si>
+    <t>24.1 - Prueba de login con usuario invalido</t>
+  </si>
+  <si>
+    <t>24.2 Prueba de login con usuario vacio</t>
+  </si>
+  <si>
+    <t>25.2 Prueba de registro con contraseñas distintas</t>
+  </si>
+  <si>
+    <t>13.1 - Intento de compra vacia</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -280,8 +316,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -291,6 +335,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -319,12 +369,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -341,16 +397,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="9">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -680,10 +748,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:M67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -694,9 +762,11 @@
     <col min="4" max="4" width="39.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="37.5" style="1" customWidth="1"/>
     <col min="6" max="6" width="17.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:13">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -716,7 +786,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:13">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -736,7 +806,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:13">
       <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
@@ -756,7 +826,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="30">
+    <row r="4" spans="1:13" ht="30">
       <c r="A4" s="2" t="s">
         <v>16</v>
       </c>
@@ -776,7 +846,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="30">
+    <row r="5" spans="1:13" ht="30">
       <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
@@ -796,11 +866,23 @@
         <v>41</v>
       </c>
       <c r="H5" s="6"/>
-      <c r="I5" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="45">
+      <c r="I5" s="6">
+        <v>1</v>
+      </c>
+      <c r="J5" s="6">
+        <v>2</v>
+      </c>
+      <c r="K5" s="6">
+        <v>3</v>
+      </c>
+      <c r="L5" s="6">
+        <v>4</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="45">
       <c r="A6" s="3" t="s">
         <v>13</v>
       </c>
@@ -819,14 +901,25 @@
       <c r="F6" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I6" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="45">
+      <c r="H6" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I6" s="4">
+        <v>3</v>
+      </c>
+      <c r="J6" s="4">
+        <v>2</v>
+      </c>
+      <c r="K6" s="4">
+        <v>1</v>
+      </c>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4">
+        <f>SUM(I6:L6)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="45">
       <c r="A7" s="3" t="s">
         <v>14</v>
       </c>
@@ -846,13 +939,24 @@
         <v>37</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="I7" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="30">
+        <v>45</v>
+      </c>
+      <c r="I7" s="8">
+        <v>2</v>
+      </c>
+      <c r="J7" s="8">
+        <v>0</v>
+      </c>
+      <c r="K7" s="8">
+        <v>3</v>
+      </c>
+      <c r="L7" s="8"/>
+      <c r="M7" s="4">
+        <f t="shared" ref="M7:M8" si="0">SUM(I7:L7)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="30">
       <c r="A8" s="3" t="s">
         <v>19</v>
       </c>
@@ -871,14 +975,25 @@
       <c r="F8" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="30">
+      <c r="H8" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" s="4">
+        <v>0</v>
+      </c>
+      <c r="J8" s="4">
+        <v>2</v>
+      </c>
+      <c r="K8" s="4">
+        <v>4</v>
+      </c>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="30">
       <c r="A9" s="3" t="s">
         <v>22</v>
       </c>
@@ -898,14 +1013,30 @@
         <v>41</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="I9" s="2">
-        <f>SUM(I6:I8)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="30">
+        <v>78</v>
+      </c>
+      <c r="I9" s="4">
+        <f>COUNTIF(B2:B69,"=1")</f>
+        <v>9</v>
+      </c>
+      <c r="J9" s="4">
+        <f>COUNTIF(B2:B69,"=2")</f>
+        <v>9</v>
+      </c>
+      <c r="K9" s="4">
+        <f>COUNTIF(B2:B69,"=3")</f>
+        <v>20</v>
+      </c>
+      <c r="L9" s="4">
+        <f>COUNTIF(B2:B69,"=4")</f>
+        <v>0</v>
+      </c>
+      <c r="M9" s="4">
+        <f>SUM(I9:L9)</f>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="30">
       <c r="A10" s="3" t="s">
         <v>23</v>
       </c>
@@ -919,13 +1050,34 @@
         <v>27</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F10" s="2"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="H10" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="I10" s="4">
+        <f>SUM(I6:I8)</f>
+        <v>5</v>
+      </c>
+      <c r="J10" s="4">
+        <f t="shared" ref="J10:L10" si="1">SUM(J6:J8)</f>
+        <v>4</v>
+      </c>
+      <c r="K10" s="4">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="L10" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M10" s="4">
+        <f>SUM(I10:L10)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="27" customHeight="1">
       <c r="A11" s="3" t="s">
         <v>24</v>
       </c>
@@ -944,8 +1096,31 @@
       <c r="F11" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="H11" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I11" s="9">
+        <f>I10/I9</f>
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="J11" s="9">
+        <f t="shared" ref="J11:L11" si="2">J10/J9</f>
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="K11" s="9">
+        <f t="shared" si="2"/>
+        <v>0.4</v>
+      </c>
+      <c r="L11" s="9" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M11" s="9">
+        <f>M10/M9</f>
+        <v>0.44736842105263158</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="2" t="s">
         <v>29</v>
       </c>
@@ -965,7 +1140,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="45">
+    <row r="13" spans="1:13" ht="45">
       <c r="A13" s="3" t="s">
         <v>30</v>
       </c>
@@ -985,7 +1160,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="60">
+    <row r="14" spans="1:13" ht="60">
       <c r="A14" s="2" t="s">
         <v>28</v>
       </c>
@@ -1005,7 +1180,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:13">
       <c r="A15" s="2" t="s">
         <v>33</v>
       </c>
@@ -1025,7 +1200,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="45">
+    <row r="16" spans="1:13" ht="45">
       <c r="A16" s="2" t="s">
         <v>34</v>
       </c>
@@ -1033,7 +1208,7 @@
         <v>2</v>
       </c>
       <c r="C16" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>35</v>
@@ -1059,7 +1234,7 @@
         <v>39</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>37</v>
@@ -1087,27 +1262,27 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="2" t="s">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="B19" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C19" s="2">
         <v>3</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B20" s="2">
         <v>3</v>
@@ -1127,7 +1302,7 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B21" s="2">
         <v>3</v>
@@ -1145,9 +1320,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="30">
-      <c r="A22" s="3" t="s">
-        <v>53</v>
+    <row r="22" spans="1:6">
+      <c r="A22" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="B22" s="2">
         <v>3</v>
@@ -1155,11 +1330,11 @@
       <c r="C22" s="2">
         <v>3</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>55</v>
+      <c r="D22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>41</v>
@@ -1167,7 +1342,7 @@
     </row>
     <row r="23" spans="1:6" ht="30">
       <c r="A23" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B23" s="2">
         <v>3</v>
@@ -1175,119 +1350,119 @@
       <c r="C23" s="2">
         <v>3</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>6</v>
+      <c r="D23" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="45">
+    <row r="24" spans="1:6" ht="30">
       <c r="A24" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" s="2">
+        <v>3</v>
+      </c>
+      <c r="C24" s="2">
+        <v>3</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="45">
+      <c r="A25" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" s="2">
+        <v>3</v>
+      </c>
+      <c r="C25" s="2">
+        <v>3</v>
+      </c>
+      <c r="D25" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B24" s="2">
-        <v>3</v>
-      </c>
-      <c r="C24" s="2">
-        <v>3</v>
-      </c>
-      <c r="D24" s="3" t="s">
+      <c r="E25" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="F25" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="30">
+      <c r="A26" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="B26" s="2">
+        <v>3</v>
+      </c>
+      <c r="C26" s="2">
+        <v>3</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27" s="2">
+        <v>3</v>
+      </c>
+      <c r="C27" s="2">
+        <v>3</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F27" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="30">
-      <c r="A25" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B25" s="2">
-        <v>3</v>
-      </c>
-      <c r="C25" s="2">
-        <v>1</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="2" t="s">
+    <row r="28" spans="1:6" ht="30">
+      <c r="A28" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B26" s="2">
-        <v>3</v>
-      </c>
-      <c r="C26" s="2">
-        <v>3</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="30">
-      <c r="A27" s="2" t="s">
+      <c r="B28" s="2">
+        <v>3</v>
+      </c>
+      <c r="C28" s="2">
+        <v>3</v>
+      </c>
+      <c r="D28" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B27" s="2">
-        <v>3</v>
-      </c>
-      <c r="C27" s="2">
-        <v>3</v>
-      </c>
-      <c r="D27" s="3" t="s">
+      <c r="E28" s="3" t="s">
         <v>65</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="60">
-      <c r="A28" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B28" s="2">
-        <v>3</v>
-      </c>
-      <c r="C28" s="2">
-        <v>3</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>69</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" ht="60">
       <c r="A29" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B29" s="2">
         <v>3</v>
@@ -1295,19 +1470,19 @@
       <c r="C29" s="2">
         <v>3</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>6</v>
+      <c r="D29" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>68</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B30" s="2">
         <v>3</v>
@@ -1325,48 +1500,431 @@
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="45">
+    <row r="31" spans="1:6">
       <c r="A31" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B31" s="2">
+        <v>3</v>
+      </c>
+      <c r="C31" s="2">
+        <v>3</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B32" s="2">
+        <v>3</v>
+      </c>
+      <c r="C32" s="2">
+        <v>3</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B33" s="2">
+        <v>3</v>
+      </c>
+      <c r="C33" s="2">
+        <v>3</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="45">
+      <c r="A34" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B34" s="2">
+        <v>3</v>
+      </c>
+      <c r="C34" s="2">
+        <v>2</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B35" s="2">
+        <v>3</v>
+      </c>
+      <c r="C35" s="2">
+        <v>3</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="45">
+      <c r="A36" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B36" s="2">
+        <v>3</v>
+      </c>
+      <c r="C36" s="2">
+        <v>3</v>
+      </c>
+      <c r="D36" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B31" s="2">
-        <v>3</v>
-      </c>
-      <c r="C31" s="2">
+      <c r="E36" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="45">
+      <c r="A37" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B37" s="2">
+        <v>3</v>
+      </c>
+      <c r="C37" s="2">
         <v>2</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D37" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F37" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E31" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F31" s="2" t="s">
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B38" s="2">
+        <v>3</v>
+      </c>
+      <c r="C38" s="2">
+        <v>3</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="30">
+      <c r="A39" s="3" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" ht="45">
-      <c r="A32" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B32" s="2">
-        <v>3</v>
-      </c>
-      <c r="C32" s="2">
-        <v>2</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>76</v>
-      </c>
+      <c r="B39" s="2">
+        <v>3</v>
+      </c>
+      <c r="C39" s="2">
+        <v>3</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="2"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="2"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="2"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="2"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="2"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="2"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="2"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="2"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="2"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="2"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="2"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="2"/>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="2"/>
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="2"/>
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="2"/>
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:C193">
+  <autoFilter ref="A1:F67"/>
+  <conditionalFormatting sqref="C2:C30 C33:C198">
+    <cfRule type="iconSet" priority="5">
+      <iconSet iconSet="3TrafficLights2">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="2"/>
+        <cfvo type="num" val="3"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C31">
+    <cfRule type="iconSet" priority="2">
+      <iconSet iconSet="3TrafficLights2">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="2"/>
+        <cfvo type="num" val="3"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C32">
     <cfRule type="iconSet" priority="1">
       <iconSet iconSet="3TrafficLights2">
         <cfvo type="percent" val="0"/>

--- a/rsc/Control de errores 1.2.xlsx
+++ b/rsc/Control de errores 1.2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14400" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14360" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="105">
   <si>
     <t>Test</t>
   </si>
@@ -286,6 +286,57 @@
   </si>
   <si>
     <t>13.1 - Intento de compra vacia</t>
+  </si>
+  <si>
+    <t>30 - Visualizacion del mapa</t>
+  </si>
+  <si>
+    <t>31 -Controlar centralizacion del mapa segun coordenadas</t>
+  </si>
+  <si>
+    <t>32 - Verificar que agregar correctamente los marcadores</t>
+  </si>
+  <si>
+    <t>33 - Verificar el manejo de la geolocalizacion del usuario</t>
+  </si>
+  <si>
+    <t>34 - Verificar que la ruta creada entre el usuario y el shopping es correcta</t>
+  </si>
+  <si>
+    <t>Medio - El mapa no se podia ver</t>
+  </si>
+  <si>
+    <t>Se identifico que el problema era al llamar la funcion del JavaScript y se modifico.</t>
+  </si>
+  <si>
+    <t>Medio - El explorador no tomaba la geolocalizacion</t>
+  </si>
+  <si>
+    <t>Se identifico que se estaba abriendo el archivo con el protocolo file y el mismo no permitia la geolocalizacion, la solucion fue poner el proyecto visual  en el proyecto de servicios.</t>
+  </si>
+  <si>
+    <t>35 - Prueba unitaria de metodos Like DB</t>
+  </si>
+  <si>
+    <t>36 - Prueba unitaria de metodos UnLike DB</t>
+  </si>
+  <si>
+    <t>37 - Pruebas desde servidor web de metodos Like hasta DB</t>
+  </si>
+  <si>
+    <t>38 - Pruebas desde servidor web de metodos UnLike hasta DB</t>
+  </si>
+  <si>
+    <t>Bajo - El metodo Unlike llamaba al Like de BD</t>
+  </si>
+  <si>
+    <t>Solucion se cambio a llamar el metodo de UnLike</t>
+  </si>
+  <si>
+    <t>39 - Prueba visualizacion gustos de usuario</t>
+  </si>
+  <si>
+    <t>Medio - Los logos no se agrupan de la mejor forma</t>
   </si>
 </sst>
 </file>
@@ -750,16 +801,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="47.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="51.83203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="43" style="1" customWidth="1"/>
     <col min="5" max="5" width="37.5" style="1" customWidth="1"/>
     <col min="6" max="6" width="17.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.1640625" bestFit="1" customWidth="1"/>
@@ -882,7 +933,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="45">
+    <row r="6" spans="1:13" ht="30">
       <c r="A6" s="3" t="s">
         <v>13</v>
       </c>
@@ -913,10 +964,12 @@
       <c r="K6" s="4">
         <v>1</v>
       </c>
-      <c r="L6" s="4"/>
+      <c r="L6" s="4">
+        <v>1</v>
+      </c>
       <c r="M6" s="4">
         <f>SUM(I6:L6)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="45">
@@ -950,10 +1003,12 @@
       <c r="K7" s="8">
         <v>3</v>
       </c>
-      <c r="L7" s="8"/>
+      <c r="L7" s="8">
+        <v>2</v>
+      </c>
       <c r="M7" s="4">
         <f t="shared" ref="M7:M8" si="0">SUM(I7:L7)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="30">
@@ -1029,11 +1084,11 @@
       </c>
       <c r="L9" s="4">
         <f>COUNTIF(B2:B69,"=4")</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M9" s="4">
         <f>SUM(I9:L9)</f>
-        <v>38</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="30">
@@ -1070,11 +1125,11 @@
       </c>
       <c r="L10" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M10" s="4">
         <f>SUM(I10:L10)</f>
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="27" customHeight="1">
@@ -1111,13 +1166,13 @@
         <f t="shared" si="2"/>
         <v>0.4</v>
       </c>
-      <c r="L11" s="9" t="e">
+      <c r="L11" s="9">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>0.3</v>
       </c>
       <c r="M11" s="9">
         <f>M10/M9</f>
-        <v>0.44736842105263158</v>
+        <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1460,7 +1515,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="60">
+    <row r="29" spans="1:6" ht="45">
       <c r="A29" s="2" t="s">
         <v>66</v>
       </c>
@@ -1660,7 +1715,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="30">
+    <row r="39" spans="1:6">
       <c r="A39" s="3" t="s">
         <v>76</v>
       </c>
@@ -1680,85 +1735,203 @@
         <v>41</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
+    <row r="40" spans="1:6" ht="30">
+      <c r="A40" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B40" s="2">
+        <v>4</v>
+      </c>
+      <c r="C40" s="2">
+        <v>3</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
+      <c r="A41" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B41" s="2">
+        <v>4</v>
+      </c>
+      <c r="C41" s="2">
+        <v>3</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
+      <c r="A42" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B42" s="2">
+        <v>4</v>
+      </c>
+      <c r="C42" s="2">
+        <v>3</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="75">
+      <c r="A43" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B43" s="2">
+        <v>4</v>
+      </c>
+      <c r="C43" s="2">
+        <v>3</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="30">
+      <c r="A44" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B44" s="2">
+        <v>4</v>
+      </c>
+      <c r="C44" s="2">
+        <v>3</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
+      <c r="A45" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B45" s="2">
+        <v>4</v>
+      </c>
+      <c r="C45" s="2">
+        <v>3</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
+      <c r="A46" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B46" s="2">
+        <v>4</v>
+      </c>
+      <c r="C46" s="2">
+        <v>3</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
+      <c r="A47" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B47" s="2">
+        <v>4</v>
+      </c>
+      <c r="C47" s="2">
+        <v>3</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
+      <c r="A48" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B48" s="2">
+        <v>4</v>
+      </c>
+      <c r="C48" s="2">
+        <v>3</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
+      <c r="A49" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B49" s="2">
+        <v>4</v>
+      </c>
+      <c r="C49" s="2">
+        <v>2</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>104</v>
+      </c>
       <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
+      <c r="F49" s="2" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="2"/>

--- a/rsc/Control de errores 1.2.xlsx
+++ b/rsc/Control de errores 1.2.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14360" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="14120" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$F$67</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$F$68</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="109">
   <si>
     <t>Test</t>
   </si>
@@ -337,6 +337,18 @@
   </si>
   <si>
     <t>Medio - Los logos no se agrupan de la mejor forma</t>
+  </si>
+  <si>
+    <t>25.3 Prueba de registro con dispositivo girado</t>
+  </si>
+  <si>
+    <t>Bajo - Al intentar escribir la contraseña se habria el teclado y tapaba el campo y no te dejaba ver que escribias.</t>
+  </si>
+  <si>
+    <t>Se paso a poner la pantalla de registro como scrollable</t>
+  </si>
+  <si>
+    <t>40 - Test visual de dispositivo girado de menu de restaurante con fotos de los platos</t>
   </si>
 </sst>
 </file>
@@ -799,10 +811,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M67"/>
+  <dimension ref="A1:M68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView tabSelected="1" topLeftCell="D2" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -962,14 +974,14 @@
         <v>2</v>
       </c>
       <c r="K6" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6" s="4">
         <v>1</v>
       </c>
       <c r="M6" s="4">
         <f>SUM(I6:L6)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="45">
@@ -1071,24 +1083,24 @@
         <v>78</v>
       </c>
       <c r="I9" s="4">
-        <f>COUNTIF(B2:B69,"=1")</f>
+        <f>COUNTIF(B2:B70,"=1")</f>
         <v>9</v>
       </c>
       <c r="J9" s="4">
-        <f>COUNTIF(B2:B69,"=2")</f>
+        <f>COUNTIF(B2:B70,"=2")</f>
         <v>9</v>
       </c>
       <c r="K9" s="4">
-        <f>COUNTIF(B2:B69,"=3")</f>
-        <v>20</v>
+        <f>COUNTIF(B2:B70,"=3")</f>
+        <v>21</v>
       </c>
       <c r="L9" s="4">
-        <f>COUNTIF(B2:B69,"=4")</f>
-        <v>10</v>
+        <f>COUNTIF(B2:B70,"=4")</f>
+        <v>11</v>
       </c>
       <c r="M9" s="4">
         <f>SUM(I9:L9)</f>
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="30">
@@ -1121,7 +1133,7 @@
       </c>
       <c r="K10" s="4">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L10" s="4">
         <f t="shared" si="1"/>
@@ -1129,7 +1141,7 @@
       </c>
       <c r="M10" s="4">
         <f>SUM(I10:L10)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="27" customHeight="1">
@@ -1164,15 +1176,15 @@
       </c>
       <c r="K11" s="9">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="L11" s="9">
         <f t="shared" si="2"/>
-        <v>0.3</v>
+        <v>0.27272727272727271</v>
       </c>
       <c r="M11" s="9">
         <f>M10/M9</f>
-        <v>0.41666666666666669</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1657,7 +1669,7 @@
     </row>
     <row r="36" spans="1:6" ht="45">
       <c r="A36" s="2" t="s">
-        <v>71</v>
+        <v>105</v>
       </c>
       <c r="B36" s="2">
         <v>3</v>
@@ -1665,25 +1677,25 @@
       <c r="C36" s="2">
         <v>3</v>
       </c>
-      <c r="D36" s="2" t="s">
-        <v>72</v>
+      <c r="D36" s="3" t="s">
+        <v>106</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>74</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="45">
       <c r="A37" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B37" s="2">
         <v>3</v>
       </c>
       <c r="C37" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>72</v>
@@ -1695,29 +1707,29 @@
         <v>74</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="3" t="s">
-        <v>77</v>
+    <row r="38" spans="1:6" ht="45">
+      <c r="A38" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="B38" s="2">
         <v>3</v>
       </c>
       <c r="C38" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>6</v>
+        <v>72</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>73</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B39" s="2">
         <v>3</v>
@@ -1735,29 +1747,29 @@
         <v>41</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="30">
+    <row r="40" spans="1:6">
       <c r="A40" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B40" s="2">
+        <v>3</v>
+      </c>
+      <c r="C40" s="2">
+        <v>3</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="30">
+      <c r="A41" s="3" t="s">
         <v>88</v>
-      </c>
-      <c r="B40" s="2">
-        <v>4</v>
-      </c>
-      <c r="C40" s="2">
-        <v>3</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="3" t="s">
-        <v>89</v>
       </c>
       <c r="B41" s="2">
         <v>4</v>
@@ -1766,10 +1778,10 @@
         <v>3</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>6</v>
+        <v>93</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>42</v>
@@ -1777,7 +1789,7 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B42" s="2">
         <v>4</v>
@@ -1795,9 +1807,9 @@
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="75">
+    <row r="43" spans="1:6">
       <c r="A43" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B43" s="2">
         <v>4</v>
@@ -1806,18 +1818,18 @@
         <v>3</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>96</v>
+        <v>6</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="30">
+    <row r="44" spans="1:6" ht="75">
       <c r="A44" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B44" s="2">
         <v>4</v>
@@ -1826,18 +1838,18 @@
         <v>3</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>6</v>
+        <v>95</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>96</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
-      <c r="A45" s="2" t="s">
-        <v>97</v>
+    <row r="45" spans="1:6" ht="30">
+      <c r="A45" s="3" t="s">
+        <v>92</v>
       </c>
       <c r="B45" s="2">
         <v>4</v>
@@ -1852,12 +1864,12 @@
         <v>6</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B46" s="2">
         <v>4</v>
@@ -1877,7 +1889,7 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B47" s="2">
         <v>4</v>
@@ -1897,7 +1909,7 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B48" s="2">
         <v>4</v>
@@ -1906,48 +1918,72 @@
         <v>3</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>101</v>
+        <v>6</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>102</v>
+        <v>6</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" ht="30">
       <c r="A49" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B49" s="2">
         <v>4</v>
       </c>
       <c r="C49" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E49" s="2"/>
+        <v>101</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>102</v>
+      </c>
       <c r="F49" s="2" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="2"/>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
+      <c r="A50" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B50" s="2">
+        <v>4</v>
+      </c>
+      <c r="C50" s="2">
+        <v>2</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>104</v>
+      </c>
       <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51" s="2"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
+      <c r="F50" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="30">
+      <c r="A51" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B51" s="2">
+        <v>4</v>
+      </c>
+      <c r="C51" s="2">
+        <v>3</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="2"/>
@@ -2077,9 +2113,17 @@
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
     </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="2"/>
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:F67"/>
-  <conditionalFormatting sqref="C2:C30 C33:C198">
+  <autoFilter ref="A1:F68"/>
+  <conditionalFormatting sqref="C2:C30 C33:C199">
     <cfRule type="iconSet" priority="5">
       <iconSet iconSet="3TrafficLights2">
         <cfvo type="percent" val="0"/>
